--- a/medicine/Mort/Cimetière_de_Friedrichswerder/Cimetière_de_Friedrichswerder.xlsx
+++ b/medicine/Mort/Cimetière_de_Friedrichswerder/Cimetière_de_Friedrichswerder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Friedrichswerder</t>
+          <t>Cimetière_de_Friedrichswerder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la communauté de Friedrichswerder est situé sur la Bergmannstraße à Berlin-Kreuzberg. Il est inauguré le 17 janvier 1844 et couvre une superficie de 30 800 mètres carrés. La chapelle n'est construite qu'en 1875/76.
 Le cimetière de Jérusalem et de la nouvelle église (division IV) forme sa limite à l'est, le cimetière II de la Trinité à l'ouest. Avec ceux-ci et le cimetière de Luisenstadt, il appartient au complexe de cimetières de la Bergmannstraße, qui sont reliés les uns aux autres il y a quelques décennies par des ouvertures.
 Le cimetière de Friedrichswerder est le deuxième, mais le premier cimetière indépendant de la communauté, après avoir partagé le cimetière des communautés de Dorotheenstadt et de Friedrichswerder. C'est pourquoi on l'appelle parfois cimetière de Friedrichswerder II . L'administration du cimetière tranche cette vieille question litigieuse en apposant un panneau d'entrée Cimetière de Friedrichswerder.
 L'église associée est l'église de Friedrichswerder à Berlin-Mitte, un bâtiment de Karl Friedrich Schinkel, qui après de graves dommages de guerre est restauré pour la première fois par la RDA, puis à nouveau en 1997 avec des matériaux de meilleure qualité. Elle est utilisée depuis 1987 par l'Académie des Arts de Berlin.
-Au total, 174 victimes de la guerre et de la tyrannie reposent dans ce cimetière, dans un cimetière de guerre fermé, dans des tombes individuelles et 25 dans une tombe collective[1].
+Au total, 174 victimes de la guerre et de la tyrannie reposent dans ce cimetière, dans un cimetière de guerre fermé, dans des tombes individuelles et 25 dans une tombe collective.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Friedrichswerder</t>
+          <t>Cimetière_de_Friedrichswerder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tombes préservées
-Carl Busse (de) (1834–1896), architecte, officier du bâtiment, directeur de l'Imprimerie du Reich (de)
+          <t>Tombes préservées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Carl Busse (de) (1834–1896), architecte, officier du bâtiment, directeur de l'Imprimerie du Reich (de)
 Carl Ferdinand Busse (de) (1802-1868), architecte, directeur de l'Académie d'architecture de Berlin, père de Carl Busse
 Hermann Clausius (de) (1854-1925), général d'infanterie
 Johann Friedrich Dieffenbach (1792–1847), médecin, pionnier de la chirurgie plastique (jusqu'en 2012 tombe d'honneur de Berlin)
@@ -534,9 +551,43 @@
 Carl Stahn (de) (1808–1891), prédicateur à l'église de Friedrichswerder
 Franz Tübbecke (1856–1937), sculpteur, élève de Reinhold Begas
 Karl Wilhelm Wach (1787–1845), peintre d'histoire
-Hermann Weigand (de) (1854–1926), homme politique, ancien de la ville, architecte du gouvernement (tombe d'honneur de Berlin)
-Tombes non conservées
-Friedrich Adler (1827-1908), officier en chef du bâtiment, chercheur en histoire du bâtiment
+Hermann Weigand (de) (1854–1926), homme politique, ancien de la ville, architecte du gouvernement (tombe d'honneur de Berlin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Friedrichswerder</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Friedrichswerder</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tombes de personnalités connues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tombes non conservées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Friedrich Adler (1827-1908), officier en chef du bâtiment, chercheur en histoire du bâtiment
 Heinrich Oberländer (de) (1834-1911), acteur et professeur de théâtre
 Adolph Paalzow (de) (1823-1908), physicien
 Rudolf von Rabe (de) (1805–1883), fonctionnaire prussien et ministre d'État
@@ -544,31 +595,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_Friedrichswerder</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Friedrichswerder</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Friedrichswerder</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Pierres tombales exceptionnelles artistiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Julius Heese, fabricant de soie, mausolée historique (construit en 1897), aujourd'hui utilisé comme columbarium
 Paul Köthner (1848–1902), tombeau mural Art nouveau en granit rouge conçu par Erdmann (de) &amp; Spindler (de) avec buste en bronze et reliefs en bronze de Lilli Finzelberg
